--- a/statistics/HistoricalDistanceData/historical_distance/Q60519453-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519453-en.xlsx
@@ -34,39 +34,39 @@
     <t>Kentucky Election Results</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Kentucky: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
     <t>Trump administration rolls back Obama-era rule aimed at limiting power plants’ toxic wastewater</t>
   </si>
   <si>
-    <t>Kentucky: Election Tools, Deadlines, Dates, Rules, and Links</t>
-  </si>
-  <si>
     <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
     <t>2020-11-03T23:15:08UTC</t>
   </si>
   <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2020-08-31T22:08:44UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
@@ -79,25 +79,25 @@
     <t>https://www.nytimes.com/interactive/2020/11/03/us/elections/results-kentucky.html</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/kentucky/</t>
+  </si>
+  <si>
     <t>https://www.washingtonpost.com/climate-environment/2020/08/31/coal-ash-epa-trump/</t>
   </si>
   <si>
-    <t>https://www.vote.org/state/kentucky/</t>
-  </si>
-  <si>
     <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
   </si>
   <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
